--- a/tags.xlsx
+++ b/tags.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/egorius/Desktop/hiree/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28C745EC-8B0B-1C41-AD0B-92C1B46F3F14}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65BCD9ED-5445-1A41-918B-B3C53B3B56A2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="440" windowWidth="17260" windowHeight="5920" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="2" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="200">
   <si>
     <t>Реализация проекта от идеи до результата</t>
   </si>
@@ -640,6 +640,12 @@
   </si>
   <si>
     <t>сегментациям</t>
+  </si>
+  <si>
+    <t>превышение доходов над расходами</t>
+  </si>
+  <si>
+    <t>труд</t>
   </si>
 </sst>
 </file>
@@ -1654,7 +1660,7 @@
   <dimension ref="A1:G33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1778,7 +1784,7 @@
         <v>144</v>
       </c>
       <c r="C6" t="s">
-        <v>16</v>
+        <v>198</v>
       </c>
       <c r="D6" t="s">
         <v>4</v>
@@ -1832,7 +1838,7 @@
     </row>
     <row r="9" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="B9" s="10" t="s">
-        <v>28</v>
+        <v>199</v>
       </c>
       <c r="C9" t="s">
         <v>162</v>
